--- a/Dataset/teaching_style.xlsx
+++ b/Dataset/teaching_style.xlsx
@@ -27,10 +27,10 @@
     <t>ts_name</t>
   </si>
   <si>
-    <t>Truc tiep (offline)</t>
+    <t>Truc tiep</t>
   </si>
   <si>
-    <t>Truc tuyen (online)</t>
+    <t>Truc tuyen</t>
   </si>
 </sst>
 </file>
@@ -406,13 +406,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
